--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="7" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="61">
   <si>
     <t>Retail Name</t>
   </si>
@@ -188,6 +188,45 @@
   </si>
   <si>
     <t>Papon Telecom</t>
+  </si>
+  <si>
+    <t>Bhuiyan Mob</t>
+  </si>
+  <si>
+    <t>Hriddro Mobile</t>
+  </si>
+  <si>
+    <t>Galaxy Mobile</t>
+  </si>
+  <si>
+    <t>Apurbo Mobile</t>
+  </si>
+  <si>
+    <t>Dighi Telecom</t>
+  </si>
+  <si>
+    <t>c25/128</t>
+  </si>
+  <si>
+    <t>Desh Telecom</t>
+  </si>
+  <si>
+    <t>c20</t>
+  </si>
+  <si>
+    <t>C25/128</t>
+  </si>
+  <si>
+    <t>Zam Zam Multi Brand</t>
+  </si>
+  <si>
+    <t>Kabir//Habib+Akmol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-Store </t>
+  </si>
+  <si>
+    <t>Kabir//Shafi Mobile</t>
   </si>
 </sst>
 </file>
@@ -589,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22369,8 +22408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22400,200 +22439,456 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869694051546018</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868529042533694</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>861180050366671</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>861180050364874</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867872050172679</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>861180050364379</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>868790050758058</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5">
+        <v>868790050749313</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694051548311</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694051546091</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>868790050736955</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
+        <v>868790050728234</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869694051320414</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869694051057396</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092052303010</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694051319671</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>868529042534338</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092052370472</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092051980099</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5">
+        <v>868529042533413</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="8">
+        <v>869694051322238</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869694051501914</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <v>861180050365830</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092051095617</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869694051145696</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5">
+        <v>868529042533553</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5">
+        <v>868529042533017</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869694051540359</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694051500775</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <v>868790051037650</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5">
+        <v>868790051036058</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869694051323590</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -23246,6 +23541,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D32">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="7" activeTab="30"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="82">
   <si>
     <t>Retail Name</t>
   </si>
@@ -227,6 +227,69 @@
   </si>
   <si>
     <t>Kabir//Shafi Mobile</t>
+  </si>
+  <si>
+    <t>C20a</t>
+  </si>
+  <si>
+    <t>Desh Mobile</t>
+  </si>
+  <si>
+    <t>C25/64</t>
+  </si>
+  <si>
+    <t>G-Store</t>
+  </si>
+  <si>
+    <t>Narzo30a</t>
+  </si>
+  <si>
+    <t>MK Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Somobai Bazar</t>
+  </si>
+  <si>
+    <t>Brothers Telecom</t>
+  </si>
+  <si>
+    <t>Boishakhi Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Barsha Telecom</t>
+  </si>
+  <si>
+    <t>Not Ok</t>
+  </si>
+  <si>
+    <t>Kabir//Shafi Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Ma Telecom</t>
+  </si>
+  <si>
+    <t>Bhuiyan Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hriddro Mobile </t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>Dighe Mobile</t>
+  </si>
+  <si>
+    <t>Shafi Mobile</t>
+  </si>
+  <si>
+    <t>C25/125</t>
+  </si>
+  <si>
+    <t>C21/64</t>
+  </si>
+  <si>
+    <t>Kabir//Habir+Almol</t>
   </si>
 </sst>
 </file>
@@ -10639,7 +10702,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20638,8 +20701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20669,200 +20732,456 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869694051546018</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868529042533694</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>861180050366671</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>861180050364874</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867872050172679</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>861180050364379</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>868790050758058</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>868790050749313</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694051548311</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694051546091</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5">
+        <v>868790050736955</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
+        <v>868790050728234</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869694051320414</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869694051057396</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092052303010</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694051319671</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>868529042534338</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092052370472</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092051980099</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869694051323590</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="5">
+        <v>868529042533413</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="8">
+        <v>869694051322238</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694051501914</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <v>861180050365830</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092051095617</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869694051145696</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5">
+        <v>868529042533553</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5">
+        <v>868529042533017</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694051540359</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869694051500775</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="5">
+        <v>868790051037650</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="5">
+        <v>868790051036058</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -21515,6 +21834,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D33">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22408,7 +22730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -24438,7 +24760,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24468,298 +24790,678 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>868790051154893</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="5">
+        <v>863726051858492</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869694051543973</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>868790051035910</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5">
+        <v>868790051154315</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092051097779</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092050528212</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5">
+        <v>868790051154174</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694051321891</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694051540318</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="5">
+        <v>863726051858211</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="5">
+        <v>863726051860233</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867872050443435</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868790051037551</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092052164859</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092050653358</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694051105732</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869694051319895</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694051562619</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5">
+        <v>868529042523075</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="5">
+        <v>863726051859292</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="5">
+        <v>863726051838171</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="5">
+        <v>863726051861330</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="4">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <v>861180050366853</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5">
+        <v>868529042533835</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5">
+        <v>868529042533793</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="5">
+        <v>863726051859094</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="5">
+        <v>863726051859276</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
+        <v>868790051036074</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869092051767413</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092052372395</v>
+      </c>
       <c r="D32" s="6"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092050516316</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869694051308112</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869694051147338</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869694051263655</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869694051559490</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="5">
+        <v>867872050446511</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="5">
+        <v>863726051855456</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="5">
+        <v>863726051860134</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="5">
+        <v>868529042531714</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5">
+        <v>868529042533934</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="5">
+        <v>868790051155197</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869092052189476</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869694051307056</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="5">
+        <v>869694051551711</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="7">
+        <v>8</v>
+      </c>
+      <c r="C47" s="8">
+        <v>861180050362712</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869694051056992</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869694051284834</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -25314,6 +26016,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C49">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="83">
   <si>
     <t>Retail Name</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>Kabir//Habir+Almol</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -20701,8 +20704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26028,7 +26031,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26058,94 +26061,214 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>861180050364031</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092052189815</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092051767173</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694051463511</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694051546893</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869694051285518</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>868790051154059</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694051367316</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694051321933</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694051285450</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>868790051156492</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8">
+        <v>868790051155379</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5">
+        <v>861180050362654</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092050530812</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694051547750</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -26904,6 +27027,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A3:D17">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -26913,8 +27039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26944,64 +27070,144 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092050516159</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092050516134</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>868790051154117</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>868790051154919</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694051284636</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869694051284396</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869694051264513</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694051366953</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694051564672</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694051564359</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>

--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="100">
   <si>
     <t>Retail Name</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>Not OK</t>
   </si>
   <si>
     <t>Sorkar Telecom</t>
@@ -244,9 +241,6 @@
     <t>Narzo30a</t>
   </si>
   <si>
-    <t>MK Telecom</t>
-  </si>
-  <si>
     <t>Kabir//Somobai Bazar</t>
   </si>
   <si>
@@ -293,6 +287,63 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>Bismillah Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Rifat Telecom</t>
+  </si>
+  <si>
+    <t>Hridro Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Somobai Nabinogor</t>
+  </si>
+  <si>
+    <t>Kabir//Moom Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Bina Mobile</t>
+  </si>
+  <si>
+    <t>Kabir//MK Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Mondol</t>
+  </si>
+  <si>
+    <t>CD Sound</t>
+  </si>
+  <si>
+    <t>Kabir//Babu Computer</t>
+  </si>
+  <si>
+    <t>Siddik Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Bismillah Naldanga</t>
+  </si>
+  <si>
+    <t>Desh Teleocom</t>
+  </si>
+  <si>
+    <t>cc21/64</t>
+  </si>
+  <si>
+    <t>tuhin Mobile</t>
+  </si>
+  <si>
+    <t>Kabir//Tutul Ahmed</t>
+  </si>
+  <si>
+    <t>Kabir// Saon Naldanga</t>
+  </si>
+  <si>
+    <t>Zilani</t>
+  </si>
+  <si>
+    <t>Kabir//Usha Electronics</t>
   </si>
 </sst>
 </file>
@@ -694,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +898,7 @@
         <v>869694051323319</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -973,7 +1024,7 @@
         <v>868790005079356</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1043,7 +1094,7 @@
         <v>869694051318491</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1192,7 +1243,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>24</v>
@@ -10704,8 +10755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10750,7 +10801,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4">
         <v>8</v>
@@ -10764,7 +10815,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
@@ -10792,7 +10843,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -10806,7 +10857,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -10814,11 +10865,13 @@
       <c r="C7" s="5">
         <v>869092052296578</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -10832,7 +10885,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -10846,7 +10899,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -10860,7 +10913,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>17</v>
@@ -10874,7 +10927,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>17</v>
@@ -10888,7 +10941,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>17</v>
@@ -10902,7 +10955,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>17</v>
@@ -10916,7 +10969,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>11</v>
@@ -10930,7 +10983,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>11</v>
@@ -10944,7 +10997,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>11</v>
@@ -10958,7 +11011,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>15</v>
@@ -10967,12 +11020,12 @@
         <v>869694051307312</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4">
         <v>8</v>
@@ -10986,10 +11039,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C20" s="5">
         <v>867872050454051</v>
@@ -11000,10 +11053,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C21" s="5">
         <v>867872050339013</v>
@@ -11014,7 +11067,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>15</v>
@@ -11023,12 +11076,12 @@
         <v>869694051323558</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>15</v>
@@ -11037,12 +11090,12 @@
         <v>869694051321834</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>15</v>
@@ -11079,7 +11132,7 @@
         <v>869694051307254</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="9"/>
     </row>
@@ -11094,7 +11147,7 @@
         <v>869694051321735</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -11137,7 +11190,7 @@
         <v>869694051320612</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -11151,7 +11204,7 @@
         <v>869694051307098</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" s="9"/>
     </row>
@@ -11170,7 +11223,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>11</v>
@@ -11179,12 +11232,12 @@
         <v>869092052293971</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>15</v>
@@ -11193,21 +11246,21 @@
         <v>869694051135416</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="5">
         <v>867872050337959</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -12740,7 +12793,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20704,8 +20757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20739,7 +20792,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5">
         <v>869694051546018</v>
@@ -20750,10 +20803,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="5">
         <v>868529042533694</v>
@@ -20764,7 +20817,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="4">
         <v>8</v>
@@ -20778,7 +20831,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="4">
         <v>8</v>
@@ -20792,10 +20845,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5">
         <v>867872050172679</v>
@@ -20806,7 +20859,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="4">
         <v>8</v>
@@ -20820,7 +20873,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -20834,7 +20887,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -20848,10 +20901,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5">
         <v>869694051548311</v>
@@ -20862,10 +20915,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5">
         <v>869694051546091</v>
@@ -20876,10 +20929,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="5">
         <v>868790050736955</v>
@@ -20890,7 +20943,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>8</v>
@@ -20904,7 +20957,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>15</v>
@@ -20913,12 +20966,12 @@
         <v>869694051320414</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>15</v>
@@ -20932,7 +20985,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>11</v>
@@ -20946,7 +20999,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>11</v>
@@ -20960,7 +21013,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
@@ -20977,7 +21030,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" s="5">
         <v>869092052370472</v>
@@ -20988,7 +21041,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>17</v>
@@ -21002,24 +21055,24 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="5">
         <v>869694051323590</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="5">
         <v>868529042533413</v>
@@ -21030,7 +21083,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>15</v>
@@ -21039,7 +21092,7 @@
         <v>869694051322238</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -21047,7 +21100,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" s="5">
         <v>869694051501914</v>
@@ -21101,7 +21154,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>5</v>
@@ -21115,7 +21168,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>5</v>
@@ -21133,7 +21186,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="5">
         <v>869694051540359</v>
@@ -21147,7 +21200,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="5">
         <v>869694051500775</v>
@@ -21162,7 +21215,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="5">
         <v>868790051037650</v>
@@ -21848,8 +21901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22733,8 +22786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22768,7 +22821,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5">
         <v>869694051546018</v>
@@ -22779,7 +22832,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -22793,7 +22846,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="4">
         <v>8</v>
@@ -22807,7 +22860,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="4">
         <v>8</v>
@@ -22821,21 +22874,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5">
         <v>867872050172679</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4">
         <v>8</v>
@@ -22849,7 +22902,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -22863,10 +22916,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="C9" s="5">
         <v>868790050749313</v>
@@ -22877,10 +22930,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="5">
         <v>869694051548311</v>
@@ -22891,10 +22944,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5">
         <v>869694051546091</v>
@@ -22905,7 +22958,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
@@ -22919,7 +22972,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>8</v>
@@ -22933,7 +22986,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>15</v>
@@ -22942,12 +22995,12 @@
         <v>869694051320414</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>15</v>
@@ -22961,7 +23014,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>11</v>
@@ -22975,7 +23028,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>15</v>
@@ -22984,12 +23037,12 @@
         <v>869694051319671</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
@@ -23017,7 +23070,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>17</v>
@@ -23031,7 +23084,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
@@ -23045,7 +23098,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>15</v>
@@ -23054,7 +23107,7 @@
         <v>869694051322238</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -23062,7 +23115,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="5">
         <v>869694051501914</v>
@@ -23116,7 +23169,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>5</v>
@@ -23130,7 +23183,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>5</v>
@@ -23147,7 +23200,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="5">
         <v>869694051540359</v>
@@ -23162,7 +23215,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="5">
         <v>869694051500775</v>
@@ -23203,7 +23256,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>15</v>
@@ -23212,7 +23265,7 @@
         <v>869694051323590</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -24762,8 +24815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24808,10 +24861,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="5">
         <v>863726051858492</v>
@@ -24822,10 +24875,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="5">
         <v>869694051543973</v>
@@ -24836,7 +24889,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -24850,10 +24903,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5">
         <v>868790051154315</v>
@@ -24864,7 +24917,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>21</v>
@@ -24878,7 +24931,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -24892,10 +24945,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5">
         <v>868790051154174</v>
@@ -24906,7 +24959,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>15</v>
@@ -24915,15 +24968,15 @@
         <v>869694051321891</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="C11" s="5">
         <v>869694051540318</v>
@@ -24934,10 +24987,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="5">
         <v>863726051858211</v>
@@ -24948,10 +25001,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5">
         <v>863726051860233</v>
@@ -24962,10 +25015,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5">
         <v>867872050443435</v>
@@ -24976,7 +25029,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>8</v>
@@ -24990,7 +25043,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
@@ -25004,7 +25057,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>11</v>
@@ -25013,12 +25066,12 @@
         <v>869092050653358</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>15</v>
@@ -25032,7 +25085,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>15</v>
@@ -25041,15 +25094,15 @@
         <v>869694051319895</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="5">
         <v>869694051562619</v>
@@ -25060,7 +25113,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
@@ -25074,10 +25127,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="C22" s="5">
         <v>863726051859292</v>
@@ -25088,10 +25141,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="C23" s="5">
         <v>863726051838171</v>
@@ -25102,10 +25155,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="C24" s="5">
         <v>863726051861330</v>
@@ -25116,7 +25169,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="4">
         <v>8</v>
@@ -25145,7 +25198,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>5</v>
@@ -25159,10 +25212,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="5">
         <v>863726051859094</v>
@@ -25173,10 +25226,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="5">
         <v>863726051859276</v>
@@ -25188,7 +25241,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>8</v>
@@ -25202,7 +25255,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>17</v>
@@ -25210,12 +25263,14 @@
       <c r="C31" s="5">
         <v>869092051767413</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>11</v>
@@ -25223,12 +25278,14 @@
       <c r="C32" s="5">
         <v>869092052372395</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>11</v>
@@ -25242,7 +25299,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>15</v>
@@ -25251,12 +25308,12 @@
         <v>869694051308112</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>15</v>
@@ -25270,7 +25327,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>15</v>
@@ -25284,10 +25341,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="5">
         <v>869694051559490</v>
@@ -25298,10 +25355,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C38" s="5">
         <v>867872050446511</v>
@@ -25312,10 +25369,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="5">
         <v>863726051855456</v>
@@ -25326,10 +25383,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="5">
         <v>863726051860134</v>
@@ -25343,7 +25400,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="5">
         <v>868529042531714</v>
@@ -25407,7 +25464,7 @@
         <v>869694051307056</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -25415,7 +25472,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="5">
         <v>869694051551711</v>
@@ -25443,7 +25500,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="5">
         <v>869694051056992</v>
@@ -26030,8 +26087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26076,7 +26133,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>17</v>
@@ -26090,7 +26147,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>17</v>
@@ -26104,10 +26161,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5">
         <v>869694051463511</v>
@@ -26118,10 +26175,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5">
         <v>869694051546893</v>
@@ -26183,7 +26240,7 @@
         <v>869694051321933</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -26197,7 +26254,7 @@
         <v>869694051285450</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -26211,7 +26268,7 @@
         <v>868790051156492</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -26225,7 +26282,7 @@
         <v>868790051155379</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -26239,7 +26296,7 @@
         <v>861180050362654</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -26253,7 +26310,7 @@
         <v>869092050530812</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -26261,138 +26318,298 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="5">
         <v>869694051547750</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5">
+        <v>868790051037734</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694051562437</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869694051502219</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092050513016</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092052371256</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869694051057313</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092051978838</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092052190870</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092052376214</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869694051285674</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092051766274</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092052371736</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <v>868790051151634</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
+        <v>868790051154794</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <v>868790051154752</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092050532859</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869694050194935</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="5">
+        <v>868790051155593</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869092052370670</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="4">
+        <v>8</v>
+      </c>
+      <c r="C36" s="5">
+        <v>861180050365855</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -27027,8 +27244,8 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
-  <sortState ref="A3:D17">
-    <sortCondition ref="A2"/>
+  <sortState ref="A17:C36">
+    <sortCondition ref="A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27039,8 +27256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E17:E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27071,7 +27288,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -27085,7 +27302,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>11</v>
@@ -27186,7 +27403,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5">
         <v>869694051564672</v>
@@ -27200,7 +27417,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5">
         <v>869694051564359</v>
@@ -27210,76 +27427,172 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5">
+        <v>867872050339112</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092052581011</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8">
+        <v>869694051265536</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869694051562916</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694051271898</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092052191712</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694051284677</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5">
+        <v>868790051154273</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694051284339</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5">
+        <v>861180050358637</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092052293856</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092051763834</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -27996,6 +28309,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A13:C23">
+    <sortCondition ref="A12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -28005,7 +28321,1247 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>861180050190519</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694051275774</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092051489554</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092052580153</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092052565113</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092052553853</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869694051462331</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092052303192</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092052375232</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694050187871</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694051275691</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="5">
+        <v>867872050339153</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867872050443930</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092052369573</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092052140974</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5">
+        <v>861180050192192</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694051380996</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869694051057339</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092051978655</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092051766712</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092052580294</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <v>868790051154695</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694051283851</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869694051618254</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="4">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
+        <v>861180050362597</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="4">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>861180050485596</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869694051275139</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <v>861180050195310</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="8">
+        <v>869694050117910</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869694051502235</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092052580419</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869694051276657</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869092052368138</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869694051285831</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869694051320331</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5">
+        <v>868790050661872</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092052564454</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092052375919</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092052553796</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869694051136158</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869092052140016</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="5">
+        <v>869694051274678</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869694051053635</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="5">
+        <v>868790051154976</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="9"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="9"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="9"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="9"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="9"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="9"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="9"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="9"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="9"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="11"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="11"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="11"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="11"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="11"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="11"/>
+    </row>
+  </sheetData>
+  <sortState ref="A8:D31">
+    <sortCondition ref="A8"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G193"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28035,27 +29591,51 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869694050080696</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694050199033</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869694051256196</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694051256154</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -28883,889 +30463,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="118">
   <si>
     <t>Retail Name</t>
   </si>
@@ -345,6 +345,60 @@
   <si>
     <t>Kabir//Usha Electronics</t>
   </si>
+  <si>
+    <t>T.M Mobile</t>
+  </si>
+  <si>
+    <t>Molla Mobile Center</t>
+  </si>
+  <si>
+    <t>Kabir//Onim Customer</t>
+  </si>
+  <si>
+    <t>Kabir//Mohammad</t>
+  </si>
+  <si>
+    <t>Biswash Mobile</t>
+  </si>
+  <si>
+    <t>Kabir//Akter  Telecom</t>
+  </si>
+  <si>
+    <t>Bismillah</t>
+  </si>
+  <si>
+    <t>Kabir//Bismillah</t>
+  </si>
+  <si>
+    <t>C21/32</t>
+  </si>
+  <si>
+    <t>Kabir//Sikreeti</t>
+  </si>
+  <si>
+    <t>Kabir//Usha Elec Doyarampur</t>
+  </si>
+  <si>
+    <t>Kabir//Tanvir City Bank Cus</t>
+  </si>
+  <si>
+    <t>biswash</t>
+  </si>
+  <si>
+    <t>Brothers</t>
+  </si>
+  <si>
+    <t>Kabir//Mitali Store</t>
+  </si>
+  <si>
+    <t>Ok Apurbo</t>
+  </si>
+  <si>
+    <t>OK Arham</t>
+  </si>
+  <si>
+    <t>OK Zam Zam</t>
+  </si>
 </sst>
 </file>
 
@@ -406,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +492,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1906,12 +1963,12 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" activeCellId="1" sqref="A1:XFD1048576 C25:C29"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
@@ -1936,154 +1993,354 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869694051275493</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694050082973</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869694051276814</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="5">
+        <v>868790051284112</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092051766514</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869694050090596</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>868790051155635</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092052369151</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694051276277</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092052357933</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092052140693</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092050898631</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5">
+        <v>868790051283296</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868790050754552</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694050080910</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694051276715</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694050084474</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869694051562650</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694051606531</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869694051462075</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092052369458</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869694051276871</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092052376438</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092052357198</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869694051275097</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2782,6 +3039,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D26">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -29558,10 +29818,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29592,197 +29852,383 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5">
-        <v>869694050080696</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>869092052579031</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5">
-        <v>869694050199033</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>869092052376354</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="5">
-        <v>869694051256196</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>869694050085513</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694051276137</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694051275055</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="8">
+        <v>869694051462174</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869694051619633</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>861180050195377</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092051981774</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092052372411</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092052377295</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092052349633</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092052372098</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092052579759</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694051275253</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694050088392</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5">
+        <v>861180050489275</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092052370613</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694051276418</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869694051056950</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C22" s="5">
+        <v>869694050080696</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092052371017</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092052367494</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869694051276699</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092052138598</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869694050199033</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869694051256196</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="5">
         <v>869694051256154</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
       <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -29795,26 +30241,26 @@
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -29857,7 +30303,6 @@
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -29871,6 +30316,7 @@
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -29889,24 +30335,28 @@
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -29927,12 +30377,14 @@
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -29977,110 +30429,86 @@
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="C60" s="9"/>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="C61" s="9"/>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="C62" s="9"/>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="C63" s="9"/>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="C64" s="9"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="9"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="9"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="9"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" s="9"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" s="9"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71" s="9"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C72" s="9"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73" s="9"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74" s="9"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C77" s="9"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C80" s="9"/>
       <c r="G80" s="9"/>
     </row>
@@ -30202,67 +30630,59 @@
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C110" s="9"/>
-      <c r="G110" s="9"/>
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C111" s="9"/>
-      <c r="G111" s="9"/>
     </row>
     <row r="112" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="9"/>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="9"/>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="9"/>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="9"/>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="9"/>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="9"/>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="9"/>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="9"/>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="9"/>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="9"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
@@ -30419,48 +30839,27 @@
       <c r="C179" s="9"/>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
+      <c r="C180" s="11"/>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
+      <c r="C181" s="11"/>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
+      <c r="C182" s="11"/>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
+      <c r="C183" s="11"/>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
+      <c r="C184" s="11"/>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
+      <c r="C185" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A3:D29">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="170">
   <si>
     <t>Retail Name</t>
   </si>
@@ -398,6 +398,162 @@
   </si>
   <si>
     <t>OK Zam Zam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hridro Mobile </t>
+  </si>
+  <si>
+    <t>Dipto mob</t>
+  </si>
+  <si>
+    <t>Rasel tel</t>
+  </si>
+  <si>
+    <t>Dolilur st</t>
+  </si>
+  <si>
+    <t>Brothers tel</t>
+  </si>
+  <si>
+    <t>Moom tel</t>
+  </si>
+  <si>
+    <t>Sohan ent</t>
+  </si>
+  <si>
+    <t>Usha ele</t>
+  </si>
+  <si>
+    <t>c21(4/64)</t>
+  </si>
+  <si>
+    <t>c21(3/32)</t>
+  </si>
+  <si>
+    <t>(c20a)</t>
+  </si>
+  <si>
+    <t>(c25-64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c21-64)</t>
+  </si>
+  <si>
+    <t>(8-128)</t>
+  </si>
+  <si>
+    <t>(c21-64)</t>
+  </si>
+  <si>
+    <t>(c21-32)</t>
+  </si>
+  <si>
+    <t>(c25-128)</t>
+  </si>
+  <si>
+    <t>RE Hridro Mobile Center</t>
+  </si>
+  <si>
+    <t>RE Dipto Mobile Corner</t>
+  </si>
+  <si>
+    <t>RE Noor Telecom Bonpara</t>
+  </si>
+  <si>
+    <t>RE Rasel telecom-RJ</t>
+  </si>
+  <si>
+    <t>RE Boishakhi Telecom Doyaramrpur</t>
+  </si>
+  <si>
+    <t>RE Brothers Mobile</t>
+  </si>
+  <si>
+    <t>RE CD Sound</t>
+  </si>
+  <si>
+    <t>RE Molla Mobile Center</t>
+  </si>
+  <si>
+    <t>RE Momtaj Teleocm</t>
+  </si>
+  <si>
+    <t>RE Shohan Enterprise</t>
+  </si>
+  <si>
+    <t>RE Friends Mobile Collection</t>
+  </si>
+  <si>
+    <t>RE Biswass Mobile</t>
+  </si>
+  <si>
+    <t>RE Siddiq Telecom</t>
+  </si>
+  <si>
+    <t>RE Galaxy Mobile Center</t>
+  </si>
+  <si>
+    <t>Hridro Mobile</t>
+  </si>
+  <si>
+    <t>Cd sound</t>
+  </si>
+  <si>
+    <t>Friends Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siddik </t>
+  </si>
+  <si>
+    <t>Biswass</t>
+  </si>
+  <si>
+    <t>Usha Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabir//Tutul </t>
+  </si>
+  <si>
+    <t>Desh</t>
+  </si>
+  <si>
+    <t>Usha Electronics</t>
+  </si>
+  <si>
+    <t>Molla</t>
+  </si>
+  <si>
+    <t>Bhuiyan</t>
+  </si>
+  <si>
+    <t>Noor</t>
+  </si>
+  <si>
+    <t>Bhiyan Mobile</t>
+  </si>
+  <si>
+    <t>Shohan Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Alamin Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Dedahaka Mobile</t>
+  </si>
+  <si>
+    <t>Kabir//Ma Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Sound </t>
+  </si>
+  <si>
+    <t>SR Electronics</t>
+  </si>
+  <si>
+    <t>Not OK</t>
+  </si>
+  <si>
+    <t>Papon</t>
   </si>
 </sst>
 </file>
@@ -3050,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C25" activeCellId="1" sqref="A1:XFD1048576 C25:C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3933,10 +4089,1863 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G144"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="5">
+        <v>868790051309356</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868790051308051</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869694050196633</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092052865513</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092052864755</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869694051147098</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869694051589133</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092052369235</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092052869911</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092052102255</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092052096259</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869694051146611</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869694051434314</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092052360333</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694051433894</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694051433399</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694051435816</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="5">
+        <v>861180050367091</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694051617876</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092051892070</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092052873053</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092052377634</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694051419570</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869694051461853</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869694051423895</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>868790051307830</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <v>868790051309299</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869092052869739</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="9"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="9"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="9"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="9"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="9"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="9"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="9"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="9"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="9"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="9"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="9"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="9"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="9"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="9"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="9"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="9"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C62" s="9"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="9"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="9"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="9"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="9"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="9"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="9"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="9"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="9"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="9"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="9"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="9"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="9"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="9"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="9"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="9"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="9"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="9"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="9"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="9"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="9"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="9"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="9"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="9"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="9"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="9"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="9"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="9"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="9"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="9"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="9"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="9"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="9"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="9"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="11"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="11"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="11"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="11"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="11"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="11"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D25">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G188"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092052870612</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092052870752</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>868790051302815</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092052873079</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>861180050365756</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869694051434397</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869694051433431</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694051433670</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694051433936</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694051434173</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>868790050736674</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
+        <v>868790050756433</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092052872998</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>861180050364973</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092052370530</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="9"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="9"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="9"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="9"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="9"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="9"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="9"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="9"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="9"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="9"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="9"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="11"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="11"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="11"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="11"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="11"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="11"/>
+    </row>
+  </sheetData>
+  <sortState ref="A8:C16">
+    <sortCondition ref="A8"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+      <selection activeCell="D23" sqref="D22:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3966,124 +5975,284 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869694051412351</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694050192277</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5">
+        <v>868790051309059</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694051056976</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694051433472</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>861180050196136</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092052369177</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092052096457</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092052369276</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694051407476</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694051323632</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869694051307312</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092052370399</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092051898010</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092052864730</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694051410454</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8">
+        <v>869694051418754</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869694051413854</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694051410876</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092052370431</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -4812,16 +6981,19 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D21">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4851,70 +7023,158 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092052870133</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092052095491</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869694051436772</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869090051896659</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694050115856</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869694051419612</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092052165179</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694051417954</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092052870497</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694051589273</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694051435717</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -5697,1776 +7957,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
-  </sheetData>
+  <sortState ref="A3:C13">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8360,8 +8853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8391,45 +8884,87 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092052564793</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092052864938</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>861180050475274</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092051974977</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092052164875</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092052865653</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>868790051303193</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -29820,8 +30355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30134,7 +30669,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>62</v>
@@ -30142,7 +30677,9 @@
       <c r="C22" s="5">
         <v>869694050080696</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
@@ -30154,7 +30691,9 @@
       <c r="C23" s="5">
         <v>869092052371017</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -30167,7 +30706,9 @@
       <c r="C24" s="5">
         <v>869092052367494</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -30180,7 +30721,9 @@
       <c r="C25" s="5">
         <v>869694051276699</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
@@ -30192,7 +30735,9 @@
       <c r="C26" s="5">
         <v>869092052138598</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
@@ -30204,7 +30749,9 @@
       <c r="C27" s="5">
         <v>869694050199033</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -30216,7 +30763,9 @@
       <c r="C28" s="5">
         <v>869694051256196</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
@@ -30228,7 +30777,9 @@
       <c r="C29" s="5">
         <v>869694051256154</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>

--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="5" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="176">
   <si>
     <t>Retail Name</t>
   </si>
@@ -454,13 +454,7 @@
     <t>RE Hridro Mobile Center</t>
   </si>
   <si>
-    <t>RE Dipto Mobile Corner</t>
-  </si>
-  <si>
     <t>RE Noor Telecom Bonpara</t>
-  </si>
-  <si>
-    <t>RE Rasel telecom-RJ</t>
   </si>
   <si>
     <t>RE Boishakhi Telecom Doyaramrpur</t>
@@ -550,17 +544,41 @@
     <t>SR Electronics</t>
   </si>
   <si>
-    <t>Not OK</t>
+    <t>Papon</t>
   </si>
   <si>
-    <t>Papon</t>
+    <t>Dipto Mobile</t>
+  </si>
+  <si>
+    <t>Kabir/ Ma Mobile</t>
+  </si>
+  <si>
+    <t>Kabir//Motiur Telecom</t>
+  </si>
+  <si>
+    <t>Sohan Telecom</t>
+  </si>
+  <si>
+    <t>Kabir// Usha Electronics</t>
+  </si>
+  <si>
+    <t>Tuhin</t>
+  </si>
+  <si>
+    <t>Sohag Mobile</t>
+  </si>
+  <si>
+    <t>Kabir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuhin </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,8 +592,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,6 +611,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -650,6 +682,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2118,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3207,7 +3263,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4091,8 +4147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4132,7 +4188,7 @@
         <v>868790051309356</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4146,7 +4202,7 @@
         <v>868790051308051</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4160,7 +4216,7 @@
         <v>869694050196633</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4174,7 +4230,7 @@
         <v>869092052865513</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4188,7 +4244,7 @@
         <v>869092052864755</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4202,7 +4258,7 @@
         <v>869694051147098</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4216,7 +4272,7 @@
         <v>869694051589133</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4230,7 +4286,7 @@
         <v>869092052369235</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4244,7 +4300,7 @@
         <v>869092052869911</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4258,7 +4314,7 @@
         <v>869092052102255</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4272,7 +4328,7 @@
         <v>869092052096259</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4286,7 +4342,7 @@
         <v>869694051146611</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4300,7 +4356,7 @@
         <v>869694051434314</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G14" s="9"/>
     </row>
@@ -4315,7 +4371,7 @@
         <v>869092052360333</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4329,7 +4385,7 @@
         <v>869694051433894</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4343,7 +4399,7 @@
         <v>869694051433399</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4357,7 +4413,7 @@
         <v>869694051435816</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4371,7 +4427,7 @@
         <v>861180050367091</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="G19" s="9"/>
     </row>
@@ -4386,7 +4442,7 @@
         <v>869694051617876</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G20" s="9"/>
     </row>
@@ -4401,7 +4457,7 @@
         <v>869092051892070</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4415,7 +4471,7 @@
         <v>869092052873053</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G22" s="9"/>
     </row>
@@ -4430,7 +4486,7 @@
         <v>869092052377634</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G23" s="9"/>
     </row>
@@ -4445,7 +4501,7 @@
         <v>869694051419570</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4459,20 +4515,20 @@
         <v>869694051461853</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="14">
         <v>869694051423895</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="9"/>
@@ -4508,16 +4564,16 @@
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="14">
         <v>869092052869739</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="9"/>
@@ -4967,7 +5023,7 @@
   <dimension ref="A1:G188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4998,7 +5054,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>132</v>
@@ -5012,7 +5068,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>132</v>
@@ -5026,7 +5082,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -5035,12 +5091,12 @@
         <v>868790051302815</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
@@ -5049,12 +5105,12 @@
         <v>869092052873079</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B6" s="4">
         <v>8</v>
@@ -5063,12 +5119,12 @@
         <v>861180050365756</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
@@ -5077,7 +5133,7 @@
         <v>869694051434397</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5109,36 +5165,36 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="14">
         <v>869694051433936</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="14">
         <v>869694051434173</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>156</v>
+      <c r="D11" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
@@ -5152,7 +5208,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>8</v>
@@ -5165,22 +5221,22 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="14">
         <v>869092052872998</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B15" s="4">
         <v>8</v>
@@ -5193,17 +5249,17 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="14">
+        <v>869092052370530</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5">
-        <v>869092052370530</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5944,8 +6000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D23" sqref="D22:D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5976,7 +6032,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>62</v>
@@ -5990,7 +6046,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -6003,16 +6059,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="14">
         <v>868790051309059</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6031,22 +6087,22 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="14">
         <v>869694051433472</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" s="4">
         <v>8</v>
@@ -6060,7 +6116,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>78</v>
@@ -6125,7 +6181,7 @@
         <v>869694051323632</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6139,7 +6195,7 @@
         <v>869694051307312</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -6228,7 +6284,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>62</v>
@@ -6993,7 +7049,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7065,17 +7121,17 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5">
-        <v>869090051896659</v>
+      <c r="C5" s="19">
+        <v>869092051896659</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7135,16 +7191,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="14">
         <v>869092052870497</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="15" t="s">
         <v>53</v>
       </c>
     </row>
@@ -7164,7 +7220,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>62</v>
@@ -7177,16 +7233,32 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="17">
+        <v>869092052377410</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="5">
+        <v>868790051036439</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -7961,6 +8033,7 @@
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7968,8 +8041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7999,136 +8072,312 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5">
+        <v>868790051307913</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694051436939</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092052101950</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092051768056</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092052302897</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092052864797</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869694050188358</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694051433878</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092052371157</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="14">
+        <v>869092052565436</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="14">
+        <v>869092052579437</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="14">
+        <v>869092052369110</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="14">
+        <v>869092052870414</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="14">
+        <v>869092052369359</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="14">
+        <v>869694051600930</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694051417913</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092052370019</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="8">
+        <v>869694051436673</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="4">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5">
+        <v>861180050190873</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5">
+        <v>861180050472859</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867872050414352</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="14">
+        <v>868790051309596</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -8845,6 +9094,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A8:D20">
+    <sortCondition ref="A8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8853,8 +9105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8893,7 +9145,9 @@
       <c r="C2" s="5">
         <v>869092052564793</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -8905,7 +9159,9 @@
       <c r="C3" s="5">
         <v>869092052864938</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -8917,7 +9173,9 @@
       <c r="C4" s="5">
         <v>861180050475274</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -8929,7 +9187,9 @@
       <c r="C5" s="5">
         <v>869092051974977</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -8941,7 +9201,9 @@
       <c r="C6" s="5">
         <v>869092052164875</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -8953,7 +9215,9 @@
       <c r="C7" s="5">
         <v>869092052865653</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -8965,37 +9229,79 @@
       <c r="C8" s="5">
         <v>868790051303193</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869694051426971</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092051978796</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8">
+        <v>869092052872873</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="14">
+        <v>869092052869879</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092052870596</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -9772,6 +10078,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A10:C13">
+    <sortCondition ref="A9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -30355,8 +30664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30668,16 +30977,16 @@
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="14">
         <v>869694050080696</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="15" t="s">
         <v>98</v>
       </c>
     </row>
@@ -30707,7 +31016,7 @@
         <v>869092052367494</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G24" s="9"/>
     </row>
@@ -30722,34 +31031,34 @@
         <v>869694051276699</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="14">
         <v>869092052138598</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="15" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="14">
         <v>869694050199033</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="15" t="s">
         <v>98</v>
       </c>
     </row>
@@ -30778,7 +31087,7 @@
         <v>869694051256154</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">

--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="188">
   <si>
     <t>Retail Name</t>
   </si>
@@ -597,6 +597,18 @@
   <si>
     <t>Narzo20</t>
   </si>
+  <si>
+    <t>Kabir//Tutul DSR</t>
+  </si>
+  <si>
+    <t>IPN Mobile</t>
+  </si>
+  <si>
+    <t>Kabir//Saon Ponditgram</t>
+  </si>
+  <si>
+    <t>Siddiq Telecom</t>
+  </si>
 </sst>
 </file>
 
@@ -11182,7 +11194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -13515,8 +13527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13546,130 +13558,298 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>861180050451655</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>861180050365491</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5">
+        <v>868790051420054</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092052991376</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869694051427417</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5">
+        <v>868790050737094</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>861180050195872</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092053360431</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092052871198</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>861180050489796</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869092052102792</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092052872915</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8">
+        <v>868790051420773</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869694051769537</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5">
+        <v>868790051422910</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694051637817</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092052729917</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5">
+        <v>861180050474855</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="5">
+        <v>868790051421094</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869694051634178</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869694051136091</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -14392,6 +14572,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D22">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="190">
   <si>
     <t>Retail Name</t>
   </si>
@@ -609,6 +609,12 @@
   <si>
     <t>Siddiq Telecom</t>
   </si>
+  <si>
+    <t>Mimi Electronics</t>
+  </si>
+  <si>
+    <t>T.M Electronics</t>
+  </si>
 </sst>
 </file>
 
@@ -13527,8 +13533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14583,8 +14589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14614,230 +14620,526 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869694051638419</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868790051326111</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092053127012</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694051638831</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="5">
+        <v>863726051894695</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="5">
+        <v>863726051894018</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="5">
+        <v>863726051890750</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="5">
+        <v>863726051896211</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="5">
+        <v>863726051894554</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869092053130750</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694051635613</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8">
+        <v>869694051935393</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869092053129232</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="5">
+        <v>863726051883037</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694051637353</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694051636017</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092051899133</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092052729610</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694051638377</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867872050448418</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="5">
+        <v>867872050448319</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869694051638757</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694051768497</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869694051380939</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="5">
+        <v>868790051422878</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092052991731</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092052735930</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869694051638039</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694051500619</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869694051500692</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="4">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5">
+        <v>861180050451796</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4">
+        <v>8</v>
+      </c>
+      <c r="C33" s="5">
+        <v>861180050364338</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>8</v>
+      </c>
+      <c r="C34" s="5">
+        <v>861180050192051</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5">
+        <v>861180050195658</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869092052736011</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869694051638237</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092052302137</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>

--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="3" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="211">
   <si>
     <t>Retail Name</t>
   </si>
@@ -615,6 +615,69 @@
   <si>
     <t>T.M Electronics</t>
   </si>
+  <si>
+    <t>Kabir Teleocm</t>
+  </si>
+  <si>
+    <t>T.M Telecom</t>
+  </si>
+  <si>
+    <t>C2164</t>
+  </si>
+  <si>
+    <t>Narzo30A</t>
+  </si>
+  <si>
+    <t>Galaxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c20a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c25-64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (8pro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biswash </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c25-128)</t>
+  </si>
+  <si>
+    <t>Momtaj</t>
+  </si>
+  <si>
+    <t>Saju</t>
+  </si>
+  <si>
+    <t>Arham</t>
+  </si>
+  <si>
+    <t>Sarkar Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (nr30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (8-128)</t>
+  </si>
+  <si>
+    <t>Saju Telecom</t>
+  </si>
+  <si>
+    <t>Kabir Telecom</t>
+  </si>
+  <si>
+    <t>Kabir//Dolilur Store</t>
+  </si>
+  <si>
+    <t>( c21-64)</t>
+  </si>
+  <si>
+    <t>Kabir//Saddam BP</t>
+  </si>
 </sst>
 </file>
 
@@ -14589,8 +14652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15771,7 +15834,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15801,136 +15864,292 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="14">
+        <v>869694051635530</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5">
+        <v>867872050417157</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>861180050449493</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092053129711</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092053171796</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="14">
+        <v>869694051635712</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="5">
+        <v>863726051882591</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="5">
+        <v>868790051420575</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694051436913</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="14">
+        <v>867872050337819</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694051462356</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="8">
+        <v>869694051631612</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="14">
+        <v>869694051426112</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="5">
+        <v>869694051427573</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="5">
+        <v>868790051325352</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="5">
+        <v>869092052992796</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="5">
+        <v>869092052992952</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="5">
+        <v>869092053122914</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="5">
+        <v>867872050417439</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="5">
+        <v>869694051637874</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="5">
+        <v>868790051324637</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="5">
+        <v>861180050473931</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -16653,10 +16872,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16686,186 +16905,425 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092052869556</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092053171655</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092053025075</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869694051764918</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="5">
+        <v>868790051419791</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="5">
+        <v>868790051325915</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="5">
+        <v>869694051767218</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>868790051325394</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694051934933</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694051436632</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694051427615</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869694051934750</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="8">
+        <v>869694051634574</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868790051324991</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="5">
+        <v>868790051400171</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694051758555</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="4">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5">
+        <v>861180050623691</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869694051540110</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869092053129539</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="5">
+        <v>863726051865810</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="5">
+        <v>863726051883250</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="4">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <v>861180050192135</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694051766251</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092052992119</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869694051934412</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="5">
+        <v>863726051876338</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="5">
+        <v>861180050197092</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <v>861180050435633</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694051767218</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869694051768737</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -16873,7 +17331,6 @@
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
@@ -16922,6 +17379,7 @@
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -16935,7 +17393,6 @@
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -16978,6 +17435,7 @@
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -16991,7 +17449,6 @@
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
@@ -17004,6 +17461,7 @@
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -17097,10 +17555,7 @@
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="C67" s="9"/>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -17301,7 +17756,6 @@
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
@@ -17511,7 +17965,7 @@
       <c r="C186" s="9"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="11"/>
@@ -17528,10 +17982,10 @@
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" s="11"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
   </sheetData>
+  <sortState ref="A3:D31">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="3" activeTab="22"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,8 +2279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4253,7 +4253,7 @@
   <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5128,7 +5128,7 @@
   <dimension ref="A1:G188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6105,8 +6105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7154,7 +7154,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8147,7 +8147,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9210,7 +9210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11263,8 +11263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12444,8 +12444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13596,8 +13596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14652,7 +14652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -15834,7 +15834,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16874,8 +16874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23304,8 +23304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27362,8 +27362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:D52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28634,8 +28634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29803,8 +29803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30867,8 +30867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32107,8 +32107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="215">
   <si>
     <t>Retail Name</t>
   </si>
@@ -678,6 +678,18 @@
   <si>
     <t>Kabir//Saddam BP</t>
   </si>
+  <si>
+    <t>Kabir//Imran--Shahid</t>
+  </si>
+  <si>
+    <t>Kabir//GD Electronics</t>
+  </si>
+  <si>
+    <t>C20A</t>
+  </si>
+  <si>
+    <t>Kabir// unknown</t>
+  </si>
 </sst>
 </file>
 
@@ -6105,7 +6117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -16874,8 +16886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17992,10 +18004,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18025,174 +18037,394 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>861180050624053</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868790051280110</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869694051635134</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="5">
+        <v>863726051866479</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="14">
+        <v>869694051935617</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="14">
+        <v>869092053526031</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="14">
+        <v>869092051894639</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="13">
+        <v>8</v>
+      </c>
+      <c r="C9" s="14">
+        <v>861180050429313</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="13">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14">
+        <v>861180050610011</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="5">
+        <v>863726051883698</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="5">
+        <v>863726051883136</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="14">
+        <v>868790051400395</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="14">
+        <v>868790051036215</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092052873392</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="5">
+        <v>863726051894612</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694051462372</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694051463016</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869694051934818</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694051934651</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092052995054</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092053171457</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092052700710</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092052699052</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <v>861180050435153</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869694051768190</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869694051768430</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="5">
+        <v>869092051219399</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
+      <c r="C29" s="5">
+        <v>868790050729356</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -18205,14 +18437,12 @@
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
@@ -18237,12 +18467,14 @@
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
@@ -18267,14 +18499,12 @@
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -18293,12 +18523,14 @@
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -18317,6 +18549,7 @@
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -18337,12 +18570,14 @@
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -18408,89 +18643,74 @@
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="C63" s="9"/>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="C64" s="9"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="9"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="9"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="9"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" s="9"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" s="9"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71" s="9"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C72" s="9"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73" s="9"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74" s="9"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C77" s="9"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C80" s="9"/>
       <c r="G80" s="9"/>
     </row>
@@ -18622,57 +18842,52 @@
       <c r="C112" s="9"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="9"/>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="9"/>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="9"/>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="9"/>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="9"/>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="9"/>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="9"/>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="9"/>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="9"/>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="9"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
@@ -18838,39 +19053,27 @@
       <c r="C182" s="9"/>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
+      <c r="C183" s="11"/>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
+      <c r="C184" s="11"/>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
+      <c r="C185" s="11"/>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
+      <c r="C186" s="11"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="11"/>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
   </sheetData>
+  <sortState ref="A3:D27">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="7" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="220">
   <si>
     <t>Retail Name</t>
   </si>
@@ -690,6 +690,21 @@
   <si>
     <t>Kabir// unknown</t>
   </si>
+  <si>
+    <t>Zilani Exlcusive</t>
+  </si>
+  <si>
+    <t>(c25 64)</t>
+  </si>
+  <si>
+    <t>(c25 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c21-32)</t>
+  </si>
+  <si>
+    <t>Kabir//Liton Telecom</t>
+  </si>
 </sst>
 </file>
 
@@ -18006,8 +18021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19965,10 +19980,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19998,312 +20013,712 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869694051934172</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869694051321057</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="5">
+        <v>863726051896336</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="5">
+        <v>863726051894679</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092053231319</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092052729230</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="5">
+        <v>869092053231392</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869092052730816</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869092051972476</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="5">
+        <v>868790051386537</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694051766517</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869694051637155</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="5">
+        <v>868790051384052</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869092053524754</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869092053359094</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869694051323459</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694051935419</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092052994792</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="5">
+        <v>869694051324416</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092052566111</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="5">
+        <v>861180050434750</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869694051639219</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092052102073</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="8">
+        <v>869092053524150</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092053230972</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869694051620052</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="5">
+        <v>861180050497435</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
+      <c r="A29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="5">
+        <v>861180050494838</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694051323095</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869694051618916</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
+      <c r="A32" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869694051323897</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869694051323178</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="5">
+        <v>868790051382296</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="5">
+        <v>868790051385653</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="5">
+        <v>863726051896138</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="5">
+        <v>863726051896179</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869092053524291</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869092053524119</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092051766993</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="5">
+        <v>868790051036330</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
+      <c r="A42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="5">
+        <v>868790051037171</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="5">
+        <v>868790051399852</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="5">
+        <v>869092052370498</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="5">
+        <v>869092052730097</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="5">
+        <v>869092052579130</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="5">
+        <v>869694051415610</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869694051323939</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869694051769552</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="4">
+        <v>8</v>
+      </c>
+      <c r="C50" s="5">
+        <v>861180050488814</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
+      <c r="A51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869694051501930</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
@@ -20316,6 +20731,7 @@
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -20409,10 +20825,7 @@
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="C67" s="9"/>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -20613,7 +21026,6 @@
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
@@ -20823,7 +21235,7 @@
       <c r="C186" s="9"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="11"/>
@@ -20840,10 +21252,10 @@
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" s="11"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
   </sheetData>
+  <sortState ref="A2:D35">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20853,7 +21265,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20883,33 +21295,63 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>861180050434438</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092051899331</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092052190458</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092052701858</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092052580278</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -25536,8 +25978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="7" activeTab="30"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="7" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="244">
   <si>
     <t>Retail Name</t>
   </si>
@@ -705,6 +705,78 @@
   <si>
     <t>Kabir//Liton Telecom</t>
   </si>
+  <si>
+    <t>Kabir//Parves-Jafor realme</t>
+  </si>
+  <si>
+    <t>Kabir//fahim-SBC Saddam</t>
+  </si>
+  <si>
+    <t>Kabri//Sarthok boss</t>
+  </si>
+  <si>
+    <t>Kabir//Mondol Najirpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (C25 64</t>
+  </si>
+  <si>
+    <t>Kabir//Sathi Computer</t>
+  </si>
+  <si>
+    <t>(C21 (3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (nr 30)</t>
+  </si>
+  <si>
+    <t>Rose Mobiel</t>
+  </si>
+  <si>
+    <t>Molla Jonail</t>
+  </si>
+  <si>
+    <t>(c20A)</t>
+  </si>
+  <si>
+    <t>(c21 (32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (C21 (32)</t>
+  </si>
+  <si>
+    <t>(c20 A)</t>
+  </si>
+  <si>
+    <t>Kabir//Rimi Telecom</t>
+  </si>
+  <si>
+    <t>C25s</t>
+  </si>
+  <si>
+    <t>8676230+01430P*</t>
+  </si>
+  <si>
+    <t>C25s/64</t>
+  </si>
+  <si>
+    <t>C25s/65</t>
+  </si>
+  <si>
+    <t>C25s/66</t>
+  </si>
+  <si>
+    <t>C25s/67</t>
+  </si>
+  <si>
+    <t>C25s/68</t>
+  </si>
+  <si>
+    <t>Zam Multi Brand</t>
+  </si>
+  <si>
+    <t>c25s/64</t>
+  </si>
 </sst>
 </file>
 
@@ -19982,8 +20054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21265,7 +21337,1210 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>861180050434438</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092051899331</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092052190458</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092052701858</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092052580278</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="5">
+        <v>869092052579098</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="5">
+        <v>863726051873970</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="5">
+        <v>863726051875298</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="5">
+        <v>869694051318459</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="5">
+        <v>869694051322535</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="5">
+        <v>869694051324051</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869694051322493</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="5">
+        <v>869694051322832</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="5">
+        <v>869694051322014</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="5">
+        <v>869694051616316</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="5">
+        <v>869092053172893</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869694051304459</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5">
+        <v>861180050488673</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="5">
+        <v>868790051303177</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869694051324671</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869694051322279</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092051762216</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869694051323236</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="5">
+        <v>868790051400536</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092053362353</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092053358070</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869092053230816</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869092052701353</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694051306215</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="8">
+        <v>869694051769511</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092052729057</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092053231459</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="5">
+        <v>868790051127451</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869694051322253</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869694051307577</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869694051545994</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="5">
+        <v>869694051321172</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869694051305035</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869694051320398</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="9"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="9"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="9"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="9"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="9"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="9"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="9"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="9"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="9"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="11"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="11"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="11"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="11"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="11"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="11"/>
+    </row>
+  </sheetData>
+  <sortState ref="A3:D40">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G193"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21296,1131 +22571,426 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4">
-        <v>8</v>
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C2" s="5">
-        <v>861180050434438</v>
+        <v>867623050132910</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="C3" s="5">
-        <v>869092051899331</v>
+        <v>867623050131391</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="C4" s="5">
-        <v>869092052190458</v>
+        <v>867623050118133</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="C5" s="5">
-        <v>869092052701858</v>
+        <v>867623050142778</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="C6" s="5">
-        <v>869092052580278</v>
+        <v>867623050134254</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="5">
+        <v>867623050117838</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623050116939</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623050118059</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="5">
+        <v>867623050133892</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867623050131912</v>
+      </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="5">
+        <v>867623050137356</v>
+      </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="8">
+        <v>867623050079970</v>
+      </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623050135079</v>
+      </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="5">
+        <v>867623050025593</v>
+      </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="5">
+        <v>867623050142919</v>
+      </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="5">
+        <v>867623050136630</v>
+      </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="5">
+        <v>867623050142612</v>
+      </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="5">
+        <v>867623050142190</v>
+      </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="5">
+        <v>867623050139493</v>
+      </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869092051891494</v>
+      </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="5">
+        <v>867623050133793</v>
+      </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="5">
+        <v>867623050133439</v>
+      </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="5">
+        <v>867623050131631</v>
+      </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="5">
+        <v>867623050039511</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="5">
+        <v>867623050137877</v>
+      </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="5">
+        <v>868790051615133</v>
+      </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="5">
+        <v>868790051615315</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869092052137376</v>
+      </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869092051977137</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869092053097959</v>
+      </c>
       <c r="D32" s="6"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869092053097694</v>
+      </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869694051416790</v>
+      </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="5">
+        <v>867623050135251</v>
+      </c>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="5">
+        <v>867623050129098</v>
+      </c>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -23064,8 +23634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25978,7 +26548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>

--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="264">
   <si>
     <t>Retail Name</t>
   </si>
@@ -777,6 +777,66 @@
   <si>
     <t>c25s/64</t>
   </si>
+  <si>
+    <t>NOt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> c21(4+64)</t>
+  </si>
+  <si>
+    <t>Kabir//Jafor TSM</t>
+  </si>
+  <si>
+    <t>(c25 128)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(c25s-64) </t>
+  </si>
+  <si>
+    <t>Sohan Enterprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c21 32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (C21 32)</t>
+  </si>
+  <si>
+    <t>(c21 32)</t>
+  </si>
+  <si>
+    <t>(C21 32)</t>
+  </si>
+  <si>
+    <t>(C21 64)</t>
+  </si>
+  <si>
+    <t>(c21 64)</t>
+  </si>
+  <si>
+    <t>(C25 64)</t>
+  </si>
+  <si>
+    <t>(C25 228)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (C20A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (C25 64)</t>
+  </si>
+  <si>
+    <t>(c 25 64)</t>
+  </si>
+  <si>
+    <t>Kabir//Barsha Computer</t>
+  </si>
+  <si>
+    <t>brothers Mobile</t>
+  </si>
+  <si>
+    <t>Barsha Computer</t>
+  </si>
 </sst>
 </file>
 
@@ -22537,10 +22597,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22579,7 +22639,9 @@
       <c r="C2" s="5">
         <v>867623050132910</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -22591,7 +22653,9 @@
       <c r="C3" s="5">
         <v>867623050131391</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -22603,7 +22667,9 @@
       <c r="C4" s="5">
         <v>867623050118133</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -22615,7 +22681,9 @@
       <c r="C5" s="5">
         <v>867623050142778</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -22627,7 +22695,9 @@
       <c r="C6" s="5">
         <v>867623050134254</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -22639,7 +22709,9 @@
       <c r="C7" s="5">
         <v>867623050117838</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -22651,7 +22723,9 @@
       <c r="C8" s="5">
         <v>867623050116939</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -22663,7 +22737,9 @@
       <c r="C9" s="5">
         <v>867623050118059</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -22675,7 +22751,9 @@
       <c r="C10" s="5">
         <v>867623050133892</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -22687,7 +22765,9 @@
       <c r="C11" s="5">
         <v>867623050131912</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -22699,7 +22779,9 @@
       <c r="C12" s="5">
         <v>867623050137356</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -22711,7 +22793,9 @@
       <c r="C13" s="8">
         <v>867623050079970</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -22723,7 +22807,9 @@
       <c r="C14" s="5">
         <v>867623050135079</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -22732,10 +22818,12 @@
       <c r="B15" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="15" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -22747,7 +22835,9 @@
       <c r="C16" s="5">
         <v>867623050025593</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -22759,7 +22849,9 @@
       <c r="C17" s="5">
         <v>867623050142919</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -22771,7 +22863,9 @@
       <c r="C18" s="5">
         <v>867623050136630</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -22783,7 +22877,9 @@
       <c r="C19" s="5">
         <v>867623050142612</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -22795,7 +22891,9 @@
       <c r="C20" s="5">
         <v>867623050142190</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -22807,7 +22905,9 @@
       <c r="C21" s="5">
         <v>867623050139493</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -22819,7 +22919,9 @@
       <c r="C22" s="5">
         <v>869092051891494</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -22831,7 +22933,9 @@
       <c r="C23" s="5">
         <v>867623050133793</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -22843,7 +22947,9 @@
       <c r="C24" s="5">
         <v>867623050133439</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -22855,7 +22961,9 @@
       <c r="C25" s="5">
         <v>867623050131631</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -22867,7 +22975,9 @@
       <c r="C26" s="5">
         <v>867623050039511</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -22880,7 +22990,9 @@
       <c r="C27" s="5">
         <v>867623050137877</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -22892,7 +23004,9 @@
       <c r="C28" s="5">
         <v>868790051615133</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -22904,7 +23018,9 @@
       <c r="C29" s="5">
         <v>868790051615315</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -22917,7 +23033,9 @@
       <c r="C30" s="5">
         <v>869092052137376</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -22929,7 +23047,9 @@
       <c r="C31" s="5">
         <v>869092051977137</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -22942,7 +23062,9 @@
       <c r="C32" s="5">
         <v>869092053097959</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -22955,7 +23077,9 @@
       <c r="C33" s="5">
         <v>869092053097694</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -22967,7 +23091,9 @@
       <c r="C34" s="5">
         <v>869694051416790</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -22979,7 +23105,9 @@
       <c r="C35" s="5">
         <v>867623050135251</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -22991,491 +23119,1025 @@
       <c r="C36" s="5">
         <v>867623050129098</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" s="5">
+        <v>867623050125690</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="5">
+        <v>867623050125419</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="5">
+        <v>867623050123794</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="5">
+        <v>867623050125435</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" s="5">
+        <v>867623050125575</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="5">
+        <v>867623050125757</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="5">
+        <v>867623050133470</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="5">
+        <v>867623050114850</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C45" s="5">
+        <v>868790051384599</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C46" s="5">
+        <v>869694051619732</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" s="5">
+        <v>868790051381819</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" s="5">
+        <v>868790051128079</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C49" s="5">
+        <v>869694051415610</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869694051416675</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="5">
+        <v>867623050125179</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="5">
+        <v>867623050111716</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C53" s="5">
+        <v>869694051320950</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" s="5">
+        <v>869092053097298</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="5">
+        <v>869092053231475</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="5">
+        <v>869092052293351</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="5">
+        <v>869092051899273</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="5">
+        <v>867872050418056</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>262</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="5">
+        <v>869092051766175</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C60" s="5">
+        <v>869092052137830</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C61" s="5">
+        <v>869092052191571</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C62" s="5">
+        <v>869092052098297</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C63" s="5">
+        <v>869092053230774</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C64" s="5">
+        <v>869092052729651</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="5">
+        <v>869092053231137</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+      <c r="A66" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C66" s="5">
+        <v>869092053228273</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="A67" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C67" s="5">
+        <v>869092052729339</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C68" s="5">
+        <v>869694051320836</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
+      <c r="A69" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C69" s="5">
+        <v>869694051588374</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
+      <c r="A70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C70" s="5">
+        <v>867623050140152</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
+      <c r="A71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" s="5">
+        <v>867623050141291</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
+      <c r="A72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C72" s="5">
+        <v>867623050140814</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
+      <c r="A73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" s="5">
+        <v>867623050124792</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
+      <c r="A74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" s="5">
+        <v>868790051414354</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
+      <c r="A75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" s="5">
+        <v>868790051324678</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
+      <c r="A76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" s="5">
+        <v>869694051417939</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
+      <c r="A77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" s="5">
+        <v>869694051419992</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
+      <c r="A78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="4">
+        <v>8</v>
+      </c>
+      <c r="C78" s="5">
+        <v>861180050498052</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
+      <c r="A79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="5">
+        <v>867872050191612</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="6"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="6"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="6"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="6"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C131" s="9"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C132" s="9"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C133" s="9"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C134" s="9"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C135" s="9"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C137" s="9"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C138" s="9"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C139" s="9"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C140" s="9"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C141" s="9"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C142" s="9"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C143" s="9"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C144" s="9"/>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.25">
@@ -23602,10 +24264,10 @@
       <c r="C185" s="9"/>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
+      <c r="C186" s="11"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="11"/>
@@ -23619,13 +24281,10 @@
     <row r="191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C191" s="11"/>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="11"/>
-    </row>
   </sheetData>
+  <sortState ref="A37:C77">
+    <sortCondition ref="A37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23635,7 +24294,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23665,75 +24324,147 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5">
+        <v>868790051615158</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092053101892</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>861180050497674</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="5">
+        <v>867623050129395</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="5">
+        <v>867623050118455</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="5">
+        <v>867623050130898</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="5">
+        <v>867623050129650</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623050118034</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="5">
+        <v>867623050134650</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867623050116954</v>
+      </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="5">
+        <v>867623050122556</v>
+      </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="8">
+        <v>868790051615497</v>
+      </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">

--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="7" activeTab="28"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="7" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="272">
   <si>
     <t>Retail Name</t>
   </si>
@@ -835,7 +835,31 @@
     <t>brothers Mobile</t>
   </si>
   <si>
-    <t>Barsha Computer</t>
+    <t>(C25 s64)</t>
+  </si>
+  <si>
+    <t>Kabir//Likhon Tel</t>
+  </si>
+  <si>
+    <t>(C25  64)</t>
+  </si>
+  <si>
+    <t>(C20A)</t>
+  </si>
+  <si>
+    <t>Kabir//Cd Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c25s-64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c25s-64)</t>
+  </si>
+  <si>
+    <t>Kabir//Rofiqul</t>
+  </si>
+  <si>
+    <t>Zilani Mobile</t>
   </si>
 </sst>
 </file>
@@ -24293,8 +24317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24333,7 +24357,9 @@
       <c r="C2" s="5">
         <v>868790051615158</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -24345,7 +24371,9 @@
       <c r="C3" s="5">
         <v>869092053101892</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -24357,7 +24385,9 @@
       <c r="C4" s="5">
         <v>861180050497674</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -24369,7 +24399,9 @@
       <c r="C5" s="5">
         <v>867623050129395</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -24381,7 +24413,9 @@
       <c r="C6" s="5">
         <v>867623050118455</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -24393,7 +24427,9 @@
       <c r="C7" s="5">
         <v>867623050130898</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -24405,7 +24441,9 @@
       <c r="C8" s="5">
         <v>867623050129650</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -24417,7 +24455,9 @@
       <c r="C9" s="5">
         <v>867623050118034</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -24429,7 +24469,9 @@
       <c r="C10" s="5">
         <v>867623050134650</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -24441,109 +24483,219 @@
       <c r="C11" s="5">
         <v>867623050116954</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="C12" s="5">
-        <v>867623050122556</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>867623050122192</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="5">
+        <v>869092053358153</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623050138271</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C15" s="5">
+        <v>867623050137695</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="5">
+        <v>867623050129270</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="5">
+        <v>867623050122556</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C18" s="8">
         <v>868790051615497</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="5">
+        <v>867623050131953</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="5">
+        <v>868790051384052</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="5">
+        <v>868790051128277</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="5">
+        <v>869694051319515</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="5">
+        <v>869092053118615</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="5">
+        <v>869092053096993</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="5">
+        <v>868790051614052</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="5">
+        <v>868790051614797</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -25242,6 +25394,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C26">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26394,8 +26549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26425,205 +26580,403 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="5">
+        <v>869092052981898</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="5">
+        <v>869092052981252</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="5">
+        <v>869092052981351</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5">
+        <v>869092052141014</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5">
+        <v>869092053360399</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>861180050558152</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>861180050391133</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="5">
+        <v>867623050220053</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="5">
+        <v>867623050220574</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="5">
+        <v>867623050220236</v>
+      </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="5">
+        <v>867623050218297</v>
+      </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="8">
+        <v>867623050217117</v>
+      </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="5">
+        <v>867623050216853</v>
+      </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="5">
+        <v>867623050217638</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="5">
+        <v>867623050220178</v>
+      </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="5">
+        <v>867623050224253</v>
+      </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="5">
+        <v>869092052981450</v>
+      </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="5">
+        <v>869092052962492</v>
+      </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="5">
+        <v>868790051670914</v>
+      </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="5">
+        <v>869092053358773</v>
+      </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="5">
+        <v>868790051661277</v>
+      </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="5">
+        <v>868790051670450</v>
+      </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="5">
+        <v>868790051671375</v>
+      </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="5">
+        <v>869092052164073</v>
+      </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="5">
+        <v>869092053362833</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="5">
+        <v>869092052097398</v>
+      </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="5">
+        <v>869694051614691</v>
+      </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="5">
+        <v>869694051613974</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="5">
+        <v>869694051419315</v>
+      </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="5">
+        <v>869694051418713</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="5">
+        <v>869694051419414</v>
+      </c>
       <c r="D32" s="6"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="5">
+        <v>869694051417293</v>
+      </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="5">
+        <v>869694051417715</v>
+      </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">

--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="288">
   <si>
     <t>Retail Name</t>
   </si>
@@ -861,6 +861,54 @@
   <si>
     <t>Zilani Mobile</t>
   </si>
+  <si>
+    <t xml:space="preserve"> (c21-64) </t>
+  </si>
+  <si>
+    <t>Kabir//Nabila</t>
+  </si>
+  <si>
+    <t>Kabir//Liton</t>
+  </si>
+  <si>
+    <t>ABC communication</t>
+  </si>
+  <si>
+    <t>Biswash Teleocm</t>
+  </si>
+  <si>
+    <t>Kabir//Sopno El</t>
+  </si>
+  <si>
+    <t>kabir//Alamin Nal</t>
+  </si>
+  <si>
+    <t>Papon telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabir//Akter </t>
+  </si>
+  <si>
+    <t>(C25 S)</t>
+  </si>
+  <si>
+    <t>(C25  S</t>
+  </si>
+  <si>
+    <t>(c25 4/64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( c21-64)</t>
+  </si>
+  <si>
+    <t>(C21  64)</t>
+  </si>
+  <si>
+    <t>(C25 S</t>
+  </si>
+  <si>
+    <t>kabir//Moom Telecom</t>
+  </si>
 </sst>
 </file>
 
@@ -26549,8 +26597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29:K29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26589,7 +26637,9 @@
       <c r="C2" s="5">
         <v>869092052981898</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -26601,7 +26651,9 @@
       <c r="C3" s="5">
         <v>869092052981252</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -26613,7 +26665,9 @@
       <c r="C4" s="5">
         <v>869092052981351</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -26625,7 +26679,9 @@
       <c r="C5" s="5">
         <v>869092052141014</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -26637,7 +26693,9 @@
       <c r="C6" s="5">
         <v>869092053360399</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -26649,7 +26707,9 @@
       <c r="C7" s="5">
         <v>861180050558152</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -26661,7 +26721,9 @@
       <c r="C8" s="5">
         <v>861180050391133</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -26673,7 +26735,9 @@
       <c r="C9" s="5">
         <v>867623050220053</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -26685,7 +26749,9 @@
       <c r="C10" s="5">
         <v>867623050220574</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -26697,7 +26763,9 @@
       <c r="C11" s="5">
         <v>867623050220236</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -26709,7 +26777,9 @@
       <c r="C12" s="5">
         <v>867623050218297</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -26721,7 +26791,9 @@
       <c r="C13" s="8">
         <v>867623050217117</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -26733,7 +26805,9 @@
       <c r="C14" s="5">
         <v>867623050216853</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -26745,7 +26819,9 @@
       <c r="C15" s="5">
         <v>867623050217638</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -26757,7 +26833,9 @@
       <c r="C16" s="5">
         <v>867623050220178</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -26769,7 +26847,9 @@
       <c r="C17" s="5">
         <v>867623050224253</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -26781,7 +26861,9 @@
       <c r="C18" s="5">
         <v>869092052981450</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -26793,7 +26875,9 @@
       <c r="C19" s="5">
         <v>869092052962492</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -26805,7 +26889,9 @@
       <c r="C20" s="5">
         <v>868790051670914</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -26817,7 +26903,9 @@
       <c r="C21" s="5">
         <v>869092053358773</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -26829,7 +26917,9 @@
       <c r="C22" s="5">
         <v>868790051661277</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -26841,7 +26931,9 @@
       <c r="C23" s="5">
         <v>868790051670450</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -26853,7 +26945,9 @@
       <c r="C24" s="5">
         <v>868790051671375</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -26865,7 +26959,9 @@
       <c r="C25" s="5">
         <v>869092052164073</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -26877,7 +26973,9 @@
       <c r="C26" s="5">
         <v>869092053362833</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -26890,7 +26988,9 @@
       <c r="C27" s="5">
         <v>869092052097398</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -26902,7 +27002,9 @@
       <c r="C28" s="5">
         <v>869694051614691</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -26914,7 +27016,9 @@
       <c r="C29" s="5">
         <v>869694051613974</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -26927,7 +27031,9 @@
       <c r="C30" s="5">
         <v>869694051419315</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -26939,7 +27045,9 @@
       <c r="C31" s="5">
         <v>869694051418713</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -26952,7 +27060,9 @@
       <c r="C32" s="5">
         <v>869694051419414</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -26965,7 +27075,9 @@
       <c r="C33" s="5">
         <v>869694051417293</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -26977,551 +27089,1147 @@
       <c r="C34" s="5">
         <v>869694051417715</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="5">
+        <v>869092053093115</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="5">
+        <v>869092053093354</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="5">
+        <v>869092053158231</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="5">
+        <v>867623050222919</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="5">
+        <v>869694051411957</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C40" s="5">
+        <v>869092052981815</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="5">
+        <v>869092053154412</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="5">
+        <v>869092052189336</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43" s="5">
+        <v>867623050226118</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" s="5">
+        <v>867623050226977</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="A45" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C45" s="5">
+        <v>867623050225979</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C46" s="5">
+        <v>867623050224055</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C47" s="5">
+        <v>869694051421014</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C48" s="5">
+        <v>869694051417855</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
+      <c r="A49" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="C49" s="5">
+        <v>869092053118292</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="5">
+        <v>869092053097033</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" s="5">
+        <v>869092052981013</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="5">
+        <v>869092053157076</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="A53" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="5">
+        <v>869092052190672</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="5">
+        <v>869092051975032</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C55" s="5">
+        <v>869092052962575</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="5">
+        <v>869092052980973</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="4">
+        <v>8</v>
+      </c>
+      <c r="C57" s="5">
+        <v>861180050395738</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="5">
+        <v>869092053358955</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="A59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C59" s="5">
+        <v>867623050214932</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" s="5">
+        <v>867623050222935</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" s="5">
+        <v>869092051894951</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="5">
+        <v>869092051897152</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="5">
+        <v>868790051384151</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="5">
+        <v>869694051320315</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="A65" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C65" s="5">
+        <v>867623050118232</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+      <c r="A66" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C66" s="5">
+        <v>867623050122291</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="A67" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C67" s="5">
+        <v>867623050129494</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+      <c r="A68" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C68" s="5">
+        <v>867623050129593</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
+      <c r="A69" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C69" s="5">
+        <v>869092053097413</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
+      <c r="A70" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70" s="5">
+        <v>869092053097538</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
+      <c r="A71" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C71" s="5">
+        <v>869694051319598</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
+      <c r="A72" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72" s="5">
+        <v>869092053097710</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
+      <c r="A73" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C73" s="5">
+        <v>869092053093859</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
+      <c r="A74" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" s="5">
+        <v>869092053118714</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="6"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="6"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="6"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="6"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="9"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="9"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
       <c r="G117" s="9"/>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C160" s="9"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
@@ -27624,6 +28332,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A37:D74">
+    <sortCondition ref="D74"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/June/Others/Entry_Imei-List -June.xlsx
+++ b/realme/June/Others/Entry_Imei-List -June.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="292">
   <si>
     <t>Retail Name</t>
   </si>
@@ -909,6 +909,18 @@
   <si>
     <t>kabir//Moom Telecom</t>
   </si>
+  <si>
+    <t>Bhuiyan Mobiel</t>
+  </si>
+  <si>
+    <t>c25s</t>
+  </si>
+  <si>
+    <t>Gift Item</t>
+  </si>
+  <si>
+    <t>Data Offer</t>
+  </si>
 </sst>
 </file>
 
@@ -26597,8 +26609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G103" sqref="G102:G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26613,7 +26625,7 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26626,8 +26638,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>178</v>
       </c>
@@ -26641,7 +26656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>178</v>
       </c>
@@ -26655,7 +26670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>178</v>
       </c>
@@ -26669,7 +26684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>178</v>
       </c>
@@ -26683,7 +26698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>178</v>
       </c>
@@ -26697,7 +26712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>178</v>
       </c>
@@ -26711,7 +26726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>178</v>
       </c>
@@ -26725,7 +26740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>178</v>
       </c>
@@ -26739,7 +26754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>178</v>
       </c>
@@ -26753,7 +26768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>178</v>
       </c>
@@ -26767,7 +26782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
@@ -26781,7 +26796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -26795,7 +26810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -26809,7 +26824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
@@ -26823,7 +26838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
@@ -27677,199 +27692,418 @@
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="6"/>
+      <c r="A75" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="4">
+        <v>8</v>
+      </c>
+      <c r="C75" s="5">
+        <v>861180050395738</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="6"/>
+      <c r="A76" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" s="5">
+        <v>867623050222372</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="6"/>
+      <c r="A77" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" s="5">
+        <v>867623050216952</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="6"/>
+      <c r="A78" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" s="5">
+        <v>867623050217919</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="6"/>
+      <c r="A79" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C79" s="5">
+        <v>869694051421097</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="6"/>
+      <c r="A80" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="5">
+        <v>868790051288972</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G80" s="9"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="6"/>
+      <c r="A81" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="5">
+        <v>868790051129135</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G81" s="9"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="6"/>
+      <c r="A82" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C82" s="5">
+        <v>867623050224170</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G82" s="9"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="6"/>
+      <c r="A83" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C83" s="5">
+        <v>867623050224550</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G83" s="9"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="6"/>
+      <c r="A84" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C84" s="5">
+        <v>867623050224352</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G84" s="9"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="6"/>
+      <c r="A85" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C85" s="5">
+        <v>867623050224790</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="6"/>
+      <c r="A86" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C86" s="5">
+        <v>867623050224733</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G86" s="9"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="6"/>
+      <c r="A87" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="5">
+        <v>869694051419976</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="6"/>
+      <c r="A88" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="5">
+        <v>869694051417657</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="6"/>
+      <c r="A89" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C89" s="5">
+        <v>867623050223693</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="6"/>
+      <c r="A90" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B90" s="4">
+        <v>8</v>
+      </c>
+      <c r="C90" s="5">
+        <v>861180050194453</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="G90" s="9"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="6"/>
+      <c r="A91" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="5">
+        <v>868790051384938</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G91" s="9"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="6"/>
+      <c r="A92" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="5">
+        <v>86909205335883</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G92" s="9"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="6"/>
+      <c r="A93" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="5">
+        <v>869092050705711</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G93" s="9"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="6"/>
+      <c r="A94" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C94" s="5">
+        <v>867623050224774</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G94" s="9"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="6"/>
+      <c r="A95" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C95" s="5">
+        <v>867623050216994</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G95" s="9"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="6"/>
+      <c r="A96" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C96" s="5">
+        <v>867623050216978</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G96" s="9"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="6"/>
+      <c r="A97" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C97" s="5">
+        <v>867623050223198</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G97" s="9"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="6"/>
+      <c r="A98" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" s="5">
+        <v>861180050435278</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G98" s="9"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
+      <c r="A99" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="B99" s="4"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="6"/>
+      <c r="C99" s="5">
+        <v>867623050133413</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G99" s="9"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
+      <c r="A100" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="B100" s="4"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="6"/>
+      <c r="C100" s="5">
+        <v>867623050135533</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G100" s="9"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
+      <c r="A101" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="B101" s="4"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="6"/>
+      <c r="C101" s="5">
+        <v>869694051319994</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G101" s="9"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
+      <c r="A102" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="B102" s="4"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="6"/>
+      <c r="C102" s="5">
+        <v>869694051588937</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G102" s="9"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -28332,8 +28566,8 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
-  <sortState ref="A37:D74">
-    <sortCondition ref="D74"/>
+  <sortState ref="A75:D98">
+    <sortCondition ref="A75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
